--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ptn</t>
+  </si>
+  <si>
+    <t>Ptprz1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ptn</t>
-  </si>
-  <si>
-    <t>Ptprz1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.5823545</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H2">
-        <v>3.164709</v>
+        <v>8.423225</v>
       </c>
       <c r="I2">
-        <v>0.1661335729656452</v>
+        <v>0.3451213243389217</v>
       </c>
       <c r="J2">
-        <v>0.1416028120206203</v>
+        <v>0.4414969759863614</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +552,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N2">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O2">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P2">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q2">
-        <v>0.03038041522275</v>
+        <v>0.1996613176583333</v>
       </c>
       <c r="R2">
-        <v>0.121521660891</v>
+        <v>1.19796790595</v>
       </c>
       <c r="S2">
-        <v>0.0004619030966894321</v>
+        <v>0.00935782923568846</v>
       </c>
       <c r="T2">
-        <v>0.0003918700909564916</v>
+        <v>0.01182561883228462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.5823545</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H3">
-        <v>3.164709</v>
+        <v>8.423225</v>
       </c>
       <c r="I3">
-        <v>0.1661335729656452</v>
+        <v>0.3451213243389217</v>
       </c>
       <c r="J3">
-        <v>0.1416028120206203</v>
+        <v>0.4414969759863614</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +620,22 @@
         <v>0.193473</v>
       </c>
       <c r="O3">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P3">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q3">
-        <v>0.1020476240595</v>
+        <v>0.181074067825</v>
       </c>
       <c r="R3">
-        <v>0.612285744357</v>
+        <v>1.629666610425</v>
       </c>
       <c r="S3">
-        <v>0.001551529602781227</v>
+        <v>0.008486672459096125</v>
       </c>
       <c r="T3">
-        <v>0.001974433764098682</v>
+        <v>0.01608708886345714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.5823545</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H4">
-        <v>3.164709</v>
+        <v>8.423225</v>
       </c>
       <c r="I4">
-        <v>0.1661335729656452</v>
+        <v>0.3451213243389217</v>
       </c>
       <c r="J4">
-        <v>0.1416028120206203</v>
+        <v>0.4414969759863614</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N4">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O4">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P4">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q4">
-        <v>10.79455418991225</v>
+        <v>6.982871775320834</v>
       </c>
       <c r="R4">
-        <v>43.17821675964901</v>
+        <v>41.89723065192501</v>
       </c>
       <c r="S4">
-        <v>0.1641201402661745</v>
+        <v>0.3272768226441371</v>
       </c>
       <c r="T4">
-        <v>0.1392365081655652</v>
+        <v>0.4135842682906196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.807741666666667</v>
+        <v>5.327779</v>
       </c>
       <c r="H5">
-        <v>8.423225</v>
+        <v>10.655558</v>
       </c>
       <c r="I5">
-        <v>0.2947886551640918</v>
+        <v>0.6548786756610784</v>
       </c>
       <c r="J5">
-        <v>0.3768916340435691</v>
+        <v>0.5585030240136385</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +738,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N5">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O5">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P5">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q5">
-        <v>0.05390723612916667</v>
+        <v>0.3788636924689999</v>
       </c>
       <c r="R5">
-        <v>0.323443416775</v>
+        <v>1.515454769876</v>
       </c>
       <c r="S5">
-        <v>0.0008196043115100192</v>
+        <v>0.01775677822478458</v>
       </c>
       <c r="T5">
-        <v>0.001043005833047207</v>
+        <v>0.0149596582488656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.807741666666667</v>
+        <v>5.327779</v>
       </c>
       <c r="H6">
-        <v>8.423225</v>
+        <v>10.655558</v>
       </c>
       <c r="I6">
-        <v>0.2947886551640918</v>
+        <v>0.6548786756610784</v>
       </c>
       <c r="J6">
-        <v>0.3768916340435691</v>
+        <v>0.5585030240136385</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,22 +806,22 @@
         <v>0.193473</v>
       </c>
       <c r="O6">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P6">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q6">
-        <v>0.181074067825</v>
+        <v>0.343593795489</v>
       </c>
       <c r="R6">
-        <v>1.629666610425</v>
+        <v>2.061562772934</v>
       </c>
       <c r="S6">
-        <v>0.002753045738357387</v>
+        <v>0.01610373056903408</v>
       </c>
       <c r="T6">
-        <v>0.005255175070630545</v>
+        <v>0.02035050808161026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.807741666666667</v>
+        <v>5.327779</v>
       </c>
       <c r="H7">
-        <v>8.423225</v>
+        <v>10.655558</v>
       </c>
       <c r="I7">
-        <v>0.2947886551640918</v>
+        <v>0.6548786756610784</v>
       </c>
       <c r="J7">
-        <v>0.3768916340435691</v>
+        <v>0.5585030240136385</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,586 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N7">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O7">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P7">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q7">
-        <v>19.1539377377875</v>
+        <v>13.2502210035635</v>
       </c>
       <c r="R7">
-        <v>114.923626426725</v>
+        <v>53.000884014254</v>
       </c>
       <c r="S7">
-        <v>0.2912160051142244</v>
+        <v>0.6210181668672597</v>
       </c>
       <c r="T7">
-        <v>0.3705934531398914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.02199333333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.06598</v>
-      </c>
-      <c r="I8">
-        <v>0.002309110283499108</v>
-      </c>
-      <c r="J8">
-        <v>0.002952231480720827</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-      <c r="M8">
-        <v>0.0191995</v>
-      </c>
-      <c r="N8">
-        <v>0.038399</v>
-      </c>
-      <c r="O8">
-        <v>0.002780311579676609</v>
-      </c>
-      <c r="P8">
-        <v>0.002767389187860387</v>
-      </c>
-      <c r="Q8">
-        <v>0.0004222610033333333</v>
-      </c>
-      <c r="R8">
-        <v>0.00253356602</v>
-      </c>
-      <c r="S8">
-        <v>6.420046059962907E-06</v>
-      </c>
-      <c r="T8">
-        <v>8.169973479807879E-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.02199333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.06598</v>
-      </c>
-      <c r="I9">
-        <v>0.002309110283499108</v>
-      </c>
-      <c r="J9">
-        <v>0.002952231480720827</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.06449100000000001</v>
-      </c>
-      <c r="N9">
-        <v>0.193473</v>
-      </c>
-      <c r="O9">
-        <v>0.009339049146327988</v>
-      </c>
-      <c r="P9">
-        <v>0.01394346436998132</v>
-      </c>
-      <c r="Q9">
-        <v>0.00141837206</v>
-      </c>
-      <c r="R9">
-        <v>0.01276534854</v>
-      </c>
-      <c r="S9">
-        <v>2.156489442188952E-05</v>
-      </c>
-      <c r="T9">
-        <v>4.116433446336805E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02199333333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.06598</v>
-      </c>
-      <c r="I10">
-        <v>0.002309110283499108</v>
-      </c>
-      <c r="J10">
-        <v>0.002952231480720827</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>6.821830500000001</v>
-      </c>
-      <c r="N10">
-        <v>13.643661</v>
-      </c>
-      <c r="O10">
-        <v>0.9878806392739954</v>
-      </c>
-      <c r="P10">
-        <v>0.9832891464421584</v>
-      </c>
-      <c r="Q10">
-        <v>0.15003479213</v>
-      </c>
-      <c r="R10">
-        <v>0.90020875278</v>
-      </c>
-      <c r="S10">
-        <v>0.002281125343017255</v>
-      </c>
-      <c r="T10">
-        <v>0.002902897172777652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.6422255</v>
-      </c>
-      <c r="H11">
-        <v>9.284451000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.4873936332390931</v>
-      </c>
-      <c r="J11">
-        <v>0.4154266220583505</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.0191995</v>
-      </c>
-      <c r="N11">
-        <v>0.038399</v>
-      </c>
-      <c r="O11">
-        <v>0.002780311579676609</v>
-      </c>
-      <c r="P11">
-        <v>0.002767389187860387</v>
-      </c>
-      <c r="Q11">
-        <v>0.08912840848725001</v>
-      </c>
-      <c r="R11">
-        <v>0.356513633949</v>
-      </c>
-      <c r="S11">
-        <v>0.001355106162355305</v>
-      </c>
-      <c r="T11">
-        <v>0.001149647142233643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>4.6422255</v>
-      </c>
-      <c r="H12">
-        <v>9.284451000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.4873936332390931</v>
-      </c>
-      <c r="J12">
-        <v>0.4154266220583505</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.06449100000000001</v>
-      </c>
-      <c r="N12">
-        <v>0.193473</v>
-      </c>
-      <c r="O12">
-        <v>0.009339049146327988</v>
-      </c>
-      <c r="P12">
-        <v>0.01394346436998132</v>
-      </c>
-      <c r="Q12">
-        <v>0.2993817647205</v>
-      </c>
-      <c r="R12">
-        <v>1.796290588323</v>
-      </c>
-      <c r="S12">
-        <v>0.004551793094427249</v>
-      </c>
-      <c r="T12">
-        <v>0.005792486303012306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.6422255</v>
-      </c>
-      <c r="H13">
-        <v>9.284451000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.4873936332390931</v>
-      </c>
-      <c r="J13">
-        <v>0.4154266220583505</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.821830500000001</v>
-      </c>
-      <c r="N13">
-        <v>13.643661</v>
-      </c>
-      <c r="O13">
-        <v>0.9878806392739954</v>
-      </c>
-      <c r="P13">
-        <v>0.9832891464421584</v>
-      </c>
-      <c r="Q13">
-        <v>31.66847550377776</v>
-      </c>
-      <c r="R13">
-        <v>126.673902015111</v>
-      </c>
-      <c r="S13">
-        <v>0.4814867339823106</v>
-      </c>
-      <c r="T13">
-        <v>0.4084844886131046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.4702770000000001</v>
-      </c>
-      <c r="H14">
-        <v>1.410831</v>
-      </c>
-      <c r="I14">
-        <v>0.04937502834767096</v>
-      </c>
-      <c r="J14">
-        <v>0.06312670039673911</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.0191995</v>
-      </c>
-      <c r="N14">
-        <v>0.038399</v>
-      </c>
-      <c r="O14">
-        <v>0.002780311579676609</v>
-      </c>
-      <c r="P14">
-        <v>0.002767389187860387</v>
-      </c>
-      <c r="Q14">
-        <v>0.009029083261500002</v>
-      </c>
-      <c r="R14">
-        <v>0.05417449956900001</v>
-      </c>
-      <c r="S14">
-        <v>0.0001372779630618904</v>
-      </c>
-      <c r="T14">
-        <v>0.0001746961481432378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.4702770000000001</v>
-      </c>
-      <c r="H15">
-        <v>1.410831</v>
-      </c>
-      <c r="I15">
-        <v>0.04937502834767096</v>
-      </c>
-      <c r="J15">
-        <v>0.06312670039673911</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.06449100000000001</v>
-      </c>
-      <c r="N15">
-        <v>0.193473</v>
-      </c>
-      <c r="O15">
-        <v>0.009339049146327988</v>
-      </c>
-      <c r="P15">
-        <v>0.01394346436998132</v>
-      </c>
-      <c r="Q15">
-        <v>0.03032863400700001</v>
-      </c>
-      <c r="R15">
-        <v>0.272957706063</v>
-      </c>
-      <c r="S15">
-        <v>0.0004611158163402367</v>
-      </c>
-      <c r="T15">
-        <v>0.0008802048977764173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.4702770000000001</v>
-      </c>
-      <c r="H16">
-        <v>1.410831</v>
-      </c>
-      <c r="I16">
-        <v>0.04937502834767096</v>
-      </c>
-      <c r="J16">
-        <v>0.06312670039673911</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.821830500000001</v>
-      </c>
-      <c r="N16">
-        <v>13.643661</v>
-      </c>
-      <c r="O16">
-        <v>0.9878806392739954</v>
-      </c>
-      <c r="P16">
-        <v>0.9832891464421584</v>
-      </c>
-      <c r="Q16">
-        <v>3.208149982048501</v>
-      </c>
-      <c r="R16">
-        <v>19.248899892291</v>
-      </c>
-      <c r="S16">
-        <v>0.04877663456826883</v>
-      </c>
-      <c r="T16">
-        <v>0.06207179935081946</v>
+        <v>0.5231928576831626</v>
       </c>
     </row>
   </sheetData>
